--- a/src/main/resources/employeeTemplate.xlsx
+++ b/src/main/resources/employeeTemplate.xlsx
@@ -20,10 +20,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${model.employees}" var="rp"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,6 +49,10 @@
   </si>
   <si>
     <t>${rp.birthday}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${report.employees}" var="rp"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,42 +395,45 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
